--- a/biology/Zoologie/Calathocratus_sinuosus/Calathocratus_sinuosus.xlsx
+++ b/biology/Zoologie/Calathocratus_sinuosus/Calathocratus_sinuosus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Calathocratus sinuosus est une espèce d'opilions dyspnois de la famille des Trogulidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Italie[1]. Elle se rencontre dans les Apennins.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Italie. Elle se rencontre dans les Apennins.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le syntype mesure 6 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le syntype mesure 6 mm.
 </t>
         </is>
       </c>
@@ -573,11 +589,13 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Trogulus sinuosus par Sørensen en 1873. Elle est placée dans le genre Trogulocratus par Chemini et Gruber en 1976[1] puis dans le genre Calathocratus par Schönhofer et Martens en 2010[3].
-Trogulocratus apenninicus[4] a été placée en synonymie par Chemini et Gruber en 1976[1].
-Trogulus albicerus[2] a été placée en synonymie par Schönhofer en 2013[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Trogulus sinuosus par Sørensen en 1873. Elle est placée dans le genre Trogulocratus par Chemini et Gruber en 1976 puis dans le genre Calathocratus par Schönhofer et Martens en 2010.
+Trogulocratus apenninicus a été placée en synonymie par Chemini et Gruber en 1976.
+Trogulus albicerus a été placée en synonymie par Schönhofer en 2013.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Sørensen, 1873 : « Bidrag til Phalangidernes Morphologi og Systematik samt Beskrivelse af nogle nye, herhen hørende Former. » Naturhistorisk Tidsskrift, sér. 3, vol. 8, p. 489–525 (texte intégral).</t>
         </is>
